--- a/Worklog_Anupam_220025208_SIT723.xlsx
+++ b/Worklog_Anupam_220025208_SIT723.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\Documents\SIT723_T3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\Documents\SIT723_T3\SIT723_T3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31900E72-115A-4E96-A3F3-92E86F616F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117CF31D-F8D5-44A1-8C10-339CF2FBA825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="39">
   <si>
     <t>Student Name</t>
   </si>
@@ -134,6 +134,24 @@
   </si>
   <si>
     <t>Human Research Ethics Training</t>
+  </si>
+  <si>
+    <t>Ontrack Task 1.1 Project Initiation and 1.2 Project in your own words</t>
+  </si>
+  <si>
+    <t>Task 1.2 Project in yur own words</t>
+  </si>
+  <si>
+    <t>Shared literature with supervisors and got their feedback.</t>
+  </si>
+  <si>
+    <t>Literature Search on AI cost, AI evaluation, ROI of software projects etc</t>
+  </si>
+  <si>
+    <t>Weekly Workshop Week 2</t>
+  </si>
+  <si>
+    <t>Total Hours</t>
   </si>
 </sst>
 </file>
@@ -530,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -544,11 +562,11 @@
     <col min="4" max="4" width="21.19921875" customWidth="1"/>
     <col min="5" max="5" width="20.796875" customWidth="1"/>
     <col min="6" max="6" width="28.69921875" customWidth="1"/>
-    <col min="7" max="7" width="68.796875" customWidth="1"/>
+    <col min="7" max="7" width="87.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +590,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -595,7 +613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -617,8 +635,11 @@
       <c r="G3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -640,8 +661,12 @@
       <c r="G4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <f>SUM(E3:E20)/60</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -664,7 +689,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -687,7 +712,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -710,7 +735,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -733,7 +758,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -756,7 +781,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -779,7 +804,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -802,7 +827,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -825,7 +850,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -839,13 +864,174 @@
         <v>44519</v>
       </c>
       <c r="E13">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="4">
+        <v>44519</v>
+      </c>
+      <c r="E14">
+        <v>120</v>
+      </c>
+      <c r="F14" t="s">
         <v>15</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4">
+        <v>44520</v>
+      </c>
+      <c r="E15">
+        <v>120</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="4">
+        <v>44521</v>
+      </c>
+      <c r="E16">
+        <v>120</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="4">
+        <v>44522</v>
+      </c>
+      <c r="E17">
+        <v>120</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4">
+        <v>44525</v>
+      </c>
+      <c r="E18">
+        <v>120</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4">
+        <v>44525</v>
+      </c>
+      <c r="E19">
+        <v>120</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="4">
+        <v>44526</v>
+      </c>
+      <c r="E20">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -857,7 +1043,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E432</xm:sqref>
+          <xm:sqref>E3:E433</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A18E5B6F-7CCC-C74F-9785-6997C435583D}">
           <x14:formula1>
@@ -992,6 +1178,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010082532935BEA4414DAD83A5DF5EC08D50" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fab9b1b639c92c05cfd4aa2b4bf08c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cad3acc22b2eb44b3a116b77879253d7" ns2:_="">
     <xsd:import namespace="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7"/>
@@ -1123,15 +1318,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
   <ds:schemaRefs>
@@ -1142,6 +1328,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FF34756-59E0-48B0-8E6C-773EF7EF3DA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1157,12 +1351,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Worklog_Anupam_220025208_SIT723.xlsx
+++ b/Worklog_Anupam_220025208_SIT723.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\Documents\SIT723_T3\SIT723_T3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117CF31D-F8D5-44A1-8C10-339CF2FBA825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4593AB58-3A3F-413C-88BF-935B05A000B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="43">
   <si>
     <t>Student Name</t>
   </si>
@@ -152,6 +152,18 @@
   </si>
   <si>
     <t>Total Hours</t>
+  </si>
+  <si>
+    <t>Weekly workshop week 3</t>
+  </si>
+  <si>
+    <t>Searching for gaps in existing ways to evaluate AI based on their ROI</t>
+  </si>
+  <si>
+    <t>Ontrack task 2.1 research progress report</t>
+  </si>
+  <si>
+    <t>Ontrack task 3.1 research progress report</t>
   </si>
 </sst>
 </file>
@@ -233,7 +245,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0FA691"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -249,6 +291,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5601E70A-E622-40D6-8822-FED82F06B107}" name="Table1" displayName="Table1" ref="A1:G25" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G25" xr:uid="{5601E70A-E622-40D6-8822-FED82F06B107}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{9C342671-B785-4E08-AD98-04240798A03E}" name="Student Name"/>
+    <tableColumn id="2" xr3:uid="{12A39F38-BECC-4878-A7FA-D53651960F38}" name="Supervisor"/>
+    <tableColumn id="3" xr3:uid="{D2EE1538-8C85-457B-9DDC-7A00480187C3}" name="Project Title"/>
+    <tableColumn id="4" xr3:uid="{6B23BAA5-B114-4A98-BA8E-F1213C05ECBF}" name="Date of Activity" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{BF6F9934-2704-4C57-84FA-8C2E4DB4FDE3}" name="Duration (Minutes)"/>
+    <tableColumn id="6" xr3:uid="{07F4639F-361B-42A4-9197-F1B13196D1CC}" name="Activity Type"/>
+    <tableColumn id="7" xr3:uid="{721586C5-9126-4E6B-A11A-003C9F444231}" name="Short Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -548,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -662,8 +720,8 @@
         <v>27</v>
       </c>
       <c r="I4">
-        <f>SUM(E3:E20)/60</f>
-        <v>32</v>
+        <f>SUM(E:E)/60</f>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1034,8 +1092,126 @@
         <v>35</v>
       </c>
     </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="4">
+        <v>44526</v>
+      </c>
+      <c r="E21">
+        <v>120</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="4">
+        <v>44526</v>
+      </c>
+      <c r="E22">
+        <v>120</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="4">
+        <v>44529</v>
+      </c>
+      <c r="E23">
+        <v>120</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="4">
+        <v>44529</v>
+      </c>
+      <c r="E24">
+        <v>60</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="4">
+        <v>44529</v>
+      </c>
+      <c r="E25">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -1172,21 +1348,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010082532935BEA4414DAD83A5DF5EC08D50" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fab9b1b639c92c05cfd4aa2b4bf08c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cad3acc22b2eb44b3a116b77879253d7" ns2:_="">
     <xsd:import namespace="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7"/>
@@ -1318,24 +1479,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FF34756-59E0-48B0-8E6C-773EF7EF3DA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1351,4 +1510,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Worklog_Anupam_220025208_SIT723.xlsx
+++ b/Worklog_Anupam_220025208_SIT723.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\Documents\SIT723_T3\SIT723_T3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4593AB58-3A3F-413C-88BF-935B05A000B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B4E39D-9EEC-44F5-8947-2E10D7388975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="43">
   <si>
     <t>Student Name</t>
   </si>
@@ -247,6 +247,9 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -272,9 +275,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -294,13 +294,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5601E70A-E622-40D6-8822-FED82F06B107}" name="Table1" displayName="Table1" ref="A1:G25" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G25" xr:uid="{5601E70A-E622-40D6-8822-FED82F06B107}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5601E70A-E622-40D6-8822-FED82F06B107}" name="Table1" displayName="Table1" ref="A1:G98" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:G98" xr:uid="{5601E70A-E622-40D6-8822-FED82F06B107}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{9C342671-B785-4E08-AD98-04240798A03E}" name="Student Name"/>
     <tableColumn id="2" xr3:uid="{12A39F38-BECC-4878-A7FA-D53651960F38}" name="Supervisor"/>
     <tableColumn id="3" xr3:uid="{D2EE1538-8C85-457B-9DDC-7A00480187C3}" name="Project Title"/>
-    <tableColumn id="4" xr3:uid="{6B23BAA5-B114-4A98-BA8E-F1213C05ECBF}" name="Date of Activity" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{6B23BAA5-B114-4A98-BA8E-F1213C05ECBF}" name="Date of Activity" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{BF6F9934-2704-4C57-84FA-8C2E4DB4FDE3}" name="Duration (Minutes)"/>
     <tableColumn id="6" xr3:uid="{07F4639F-361B-42A4-9197-F1B13196D1CC}" name="Activity Type"/>
     <tableColumn id="7" xr3:uid="{721586C5-9126-4E6B-A11A-003C9F444231}" name="Short Description"/>
@@ -606,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -721,7 +721,7 @@
       </c>
       <c r="I4">
         <f>SUM(E:E)/60</f>
-        <v>40</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1205,6 +1205,1466 @@
       </c>
       <c r="G25" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="4">
+        <v>44531</v>
+      </c>
+      <c r="E26">
+        <v>120</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="4">
+        <v>44531</v>
+      </c>
+      <c r="E27">
+        <v>120</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="4">
+        <v>44531</v>
+      </c>
+      <c r="E28">
+        <v>120</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="4">
+        <v>44532</v>
+      </c>
+      <c r="E29">
+        <v>120</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="4">
+        <v>44533</v>
+      </c>
+      <c r="E30">
+        <v>120</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E31">
+        <v>120</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E32">
+        <v>120</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="4">
+        <v>44534</v>
+      </c>
+      <c r="E33">
+        <v>120</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="4">
+        <v>44536</v>
+      </c>
+      <c r="E34">
+        <v>120</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="4">
+        <v>44537</v>
+      </c>
+      <c r="E35">
+        <v>120</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="4">
+        <v>44538</v>
+      </c>
+      <c r="E36">
+        <v>120</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="4">
+        <v>44538</v>
+      </c>
+      <c r="E37">
+        <v>120</v>
+      </c>
+      <c r="F37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="4">
+        <v>44543</v>
+      </c>
+      <c r="E38">
+        <v>120</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="4">
+        <v>44544</v>
+      </c>
+      <c r="E39">
+        <v>120</v>
+      </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="4">
+        <v>44545</v>
+      </c>
+      <c r="E40">
+        <v>120</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="4">
+        <v>44546</v>
+      </c>
+      <c r="E41">
+        <v>120</v>
+      </c>
+      <c r="F41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="4">
+        <v>44550</v>
+      </c>
+      <c r="E42">
+        <v>120</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="4">
+        <v>44564</v>
+      </c>
+      <c r="E43">
+        <v>120</v>
+      </c>
+      <c r="F43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="4">
+        <v>44565</v>
+      </c>
+      <c r="E44">
+        <v>120</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="4">
+        <v>44566</v>
+      </c>
+      <c r="E45">
+        <v>120</v>
+      </c>
+      <c r="F45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="4">
+        <v>44567</v>
+      </c>
+      <c r="E46">
+        <v>120</v>
+      </c>
+      <c r="F46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="4">
+        <v>44568</v>
+      </c>
+      <c r="E47">
+        <v>120</v>
+      </c>
+      <c r="F47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="4">
+        <v>44569</v>
+      </c>
+      <c r="E48">
+        <v>120</v>
+      </c>
+      <c r="F48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="4">
+        <v>44570</v>
+      </c>
+      <c r="E49">
+        <v>120</v>
+      </c>
+      <c r="F49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="4">
+        <v>44571</v>
+      </c>
+      <c r="E50">
+        <v>120</v>
+      </c>
+      <c r="F50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="4">
+        <v>44572</v>
+      </c>
+      <c r="E51">
+        <v>120</v>
+      </c>
+      <c r="F51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="4">
+        <v>44573</v>
+      </c>
+      <c r="E52">
+        <v>120</v>
+      </c>
+      <c r="F52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="4">
+        <v>44574</v>
+      </c>
+      <c r="E53">
+        <v>120</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="4">
+        <v>44575</v>
+      </c>
+      <c r="E54">
+        <v>120</v>
+      </c>
+      <c r="F54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="4">
+        <v>44576</v>
+      </c>
+      <c r="E55">
+        <v>120</v>
+      </c>
+      <c r="F55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="4">
+        <v>44577</v>
+      </c>
+      <c r="E56">
+        <v>120</v>
+      </c>
+      <c r="F56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="4">
+        <v>44578</v>
+      </c>
+      <c r="E57">
+        <v>120</v>
+      </c>
+      <c r="F57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="4">
+        <v>44579</v>
+      </c>
+      <c r="E58">
+        <v>120</v>
+      </c>
+      <c r="F58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="4">
+        <v>44580</v>
+      </c>
+      <c r="E59">
+        <v>120</v>
+      </c>
+      <c r="F59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="4">
+        <v>44581</v>
+      </c>
+      <c r="E60">
+        <v>120</v>
+      </c>
+      <c r="F60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="4">
+        <v>44582</v>
+      </c>
+      <c r="E61">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="4">
+        <v>44583</v>
+      </c>
+      <c r="E62">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="4">
+        <v>44584</v>
+      </c>
+      <c r="E63">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="4">
+        <v>44585</v>
+      </c>
+      <c r="E64">
+        <v>120</v>
+      </c>
+      <c r="F64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="4">
+        <v>44586</v>
+      </c>
+      <c r="E65">
+        <v>120</v>
+      </c>
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="4">
+        <v>44587</v>
+      </c>
+      <c r="E66">
+        <v>120</v>
+      </c>
+      <c r="F66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="4">
+        <v>44588</v>
+      </c>
+      <c r="E67">
+        <v>120</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="4">
+        <v>44589</v>
+      </c>
+      <c r="E68">
+        <v>120</v>
+      </c>
+      <c r="F68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="4">
+        <v>44590</v>
+      </c>
+      <c r="E69">
+        <v>120</v>
+      </c>
+      <c r="F69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="4">
+        <v>44591</v>
+      </c>
+      <c r="E70">
+        <v>120</v>
+      </c>
+      <c r="F70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="4">
+        <v>44592</v>
+      </c>
+      <c r="E71">
+        <v>120</v>
+      </c>
+      <c r="F71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="4">
+        <v>44593</v>
+      </c>
+      <c r="E72">
+        <v>120</v>
+      </c>
+      <c r="F72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="4">
+        <v>44594</v>
+      </c>
+      <c r="E73">
+        <v>120</v>
+      </c>
+      <c r="F73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="4">
+        <v>44595</v>
+      </c>
+      <c r="E74">
+        <v>120</v>
+      </c>
+      <c r="F74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="4">
+        <v>44596</v>
+      </c>
+      <c r="E75">
+        <v>120</v>
+      </c>
+      <c r="F75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="4">
+        <v>44597</v>
+      </c>
+      <c r="E76">
+        <v>120</v>
+      </c>
+      <c r="F76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="4">
+        <v>44598</v>
+      </c>
+      <c r="E77">
+        <v>120</v>
+      </c>
+      <c r="F77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="4">
+        <v>44599</v>
+      </c>
+      <c r="E78">
+        <v>120</v>
+      </c>
+      <c r="F78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="4">
+        <v>44600</v>
+      </c>
+      <c r="E79">
+        <v>120</v>
+      </c>
+      <c r="F79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="4">
+        <v>44601</v>
+      </c>
+      <c r="E80">
+        <v>120</v>
+      </c>
+      <c r="F80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="4">
+        <v>44599</v>
+      </c>
+      <c r="E81">
+        <v>120</v>
+      </c>
+      <c r="F81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="4">
+        <v>44599</v>
+      </c>
+      <c r="E82">
+        <v>120</v>
+      </c>
+      <c r="F82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="4">
+        <v>44599</v>
+      </c>
+      <c r="E83">
+        <v>120</v>
+      </c>
+      <c r="F83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="4">
+        <v>44606</v>
+      </c>
+      <c r="E84">
+        <v>120</v>
+      </c>
+      <c r="F84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="4">
+        <v>44600</v>
+      </c>
+      <c r="E85">
+        <v>120</v>
+      </c>
+      <c r="F85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" s="4">
+        <v>44601</v>
+      </c>
+      <c r="E86">
+        <v>120</v>
+      </c>
+      <c r="F86" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" s="4">
+        <v>44602</v>
+      </c>
+      <c r="E87">
+        <v>120</v>
+      </c>
+      <c r="F87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="4">
+        <v>44605</v>
+      </c>
+      <c r="E88">
+        <v>120</v>
+      </c>
+      <c r="F88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="4">
+        <v>44605</v>
+      </c>
+      <c r="E89">
+        <v>120</v>
+      </c>
+      <c r="F89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="4">
+        <v>44605</v>
+      </c>
+      <c r="E90">
+        <v>120</v>
+      </c>
+      <c r="F90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" s="4">
+        <v>44605</v>
+      </c>
+      <c r="E91">
+        <v>120</v>
+      </c>
+      <c r="F91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="4">
+        <v>44606</v>
+      </c>
+      <c r="E92">
+        <v>120</v>
+      </c>
+      <c r="F92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="4">
+        <v>44606</v>
+      </c>
+      <c r="E93">
+        <v>120</v>
+      </c>
+      <c r="F93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="4">
+        <v>44606</v>
+      </c>
+      <c r="E94">
+        <v>120</v>
+      </c>
+      <c r="F94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="4">
+        <v>44607</v>
+      </c>
+      <c r="E95">
+        <v>120</v>
+      </c>
+      <c r="F95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" s="4">
+        <v>44607</v>
+      </c>
+      <c r="E96">
+        <v>120</v>
+      </c>
+      <c r="F96" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="4">
+        <v>44606</v>
+      </c>
+      <c r="E97">
+        <v>120</v>
+      </c>
+      <c r="F97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="4">
+        <v>44606</v>
+      </c>
+      <c r="E98">
+        <v>120</v>
+      </c>
+      <c r="F98" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1219,13 +2679,13 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E433</xm:sqref>
+          <xm:sqref>E3:E453</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A18E5B6F-7CCC-C74F-9785-6997C435583D}">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$11</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F1048576</xm:sqref>
+          <xm:sqref>F3:F87 F89 F97:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1348,6 +2808,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010082532935BEA4414DAD83A5DF5EC08D50" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fab9b1b639c92c05cfd4aa2b4bf08c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cad3acc22b2eb44b3a116b77879253d7" ns2:_="">
     <xsd:import namespace="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7"/>
@@ -1479,22 +2954,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FF34756-59E0-48B0-8E6C-773EF7EF3DA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1510,21 +2987,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>